--- a/week16 对话系统/scenario/slot_fitting_templet.xlsx
+++ b/week16 对话系统/scenario/slot_fitting_templet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180"/>
+    <workbookView windowWidth="24340" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1264,14 +1264,14 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="23.1153846153846" customWidth="1"/>
     <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="3" max="3" width="31.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.1153846153846" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1366,7 +1366,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1382,7 +1382,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/week16 对话系统/scenario/slot_fitting_templet.xlsx
+++ b/week16 对话系统/scenario/slot_fitting_templet.xlsx
@@ -52,7 +52,7 @@
     <t>#服装颜色#</t>
   </si>
   <si>
-    <t>您喜欢什么颜色</t>
+    <t>您喜欢什么颜色（红|橙|黄|绿|青|蓝|紫)</t>
   </si>
   <si>
     <t>红|橙|黄|绿|青|蓝|紫</t>
@@ -61,7 +61,7 @@
     <t>#服装尺寸#</t>
   </si>
   <si>
-    <t>您想要多尺寸</t>
+    <t>您想要多尺寸（s|m|l|xl|xll）</t>
   </si>
   <si>
     <t>s|m|l|xl|xll</t>
@@ -79,7 +79,7 @@
     <t>#支付方式#</t>
   </si>
   <si>
-    <t>您想使用什么支付方式</t>
+    <t>您想使用什么支付方式(信用卡|支付宝|微信)</t>
   </si>
   <si>
     <t>信用卡|支付宝|微信</t>
@@ -1264,7 +1264,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="2"/>
